--- a/Application/Reports/Week 10 (10 Oct 2016)/NewClientsReport (10 Oct 2016).xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/NewClientsReport (10 Oct 2016).xlsx
@@ -38,7 +38,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Mon Oct 2016 13:37:15</t>
+    <t>Mon Oct 2016 14:29:36</t>
   </si>
 </sst>
 </file>

--- a/Application/Reports/Week 10 (10 Oct 2016)/NewClientsReport (10 Oct 2016).xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/NewClientsReport (10 Oct 2016).xlsx
@@ -38,7 +38,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Mon Oct 2016 14:29:36</t>
+    <t>Tue Oct 2016 10:22:48</t>
   </si>
 </sst>
 </file>

--- a/Application/Reports/Week 10 (10 Oct 2016)/NewClientsReport (10 Oct 2016).xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/NewClientsReport (10 Oct 2016).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Doorstep Chef NewClient Sheet</t>
   </si>
@@ -38,7 +38,22 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Tue Oct 2016 10:22:48</t>
+    <t>Oliver Queen</t>
+  </si>
+  <si>
+    <t>064 118 6549</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Oliver@Queendome.com</t>
+  </si>
+  <si>
+    <t>asdasd asdasdasd asdasd</t>
+  </si>
+  <si>
+    <t>Wed Oct 2016 11:11:55</t>
   </si>
 </sst>
 </file>
@@ -151,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -253,11 +268,165 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -288,6 +457,11 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -303,11 +477,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="true"/>
+    <col min="1" max="1" width="13.125" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="10.3125" customWidth="true"/>
-    <col min="4" max="4" width="27.96875" customWidth="true"/>
-    <col min="5" max="5" width="27.96875" customWidth="true"/>
+    <col min="4" max="4" width="26.09375" customWidth="true"/>
+    <col min="5" max="5" width="26.09375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -361,16 +535,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="16">
+    <row r="4">
+      <c r="A4" t="s" s="16">
         <v>8</v>
+      </c>
+      <c r="B4" t="s" s="17">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="18">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="21">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
